--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F269" t="n">
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -17675,7 +17675,7 @@
         </is>
       </c>
       <c r="F361" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/02/2022</t>
+          <t>08/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F268" t="n">
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -17675,7 +17675,7 @@
         </is>
       </c>
       <c r="F361" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F269" t="n">
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,7 +13303,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -17675,7 +17675,7 @@
         </is>
       </c>
       <c r="F361" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,12 +17704,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -17723,7 +17723,7 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,7 +13303,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F270" t="n">
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -17675,7 +17675,7 @@
         </is>
       </c>
       <c r="F361" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,12 +17704,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -17723,7 +17723,7 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>22/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F269" t="n">
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,7 +13303,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -17675,7 +17675,7 @@
         </is>
       </c>
       <c r="F361" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,12 +17704,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -17723,7 +17723,7 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>03/05/2020</t>
+          <t>04/05/2020</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>PSF Quemados SpA</t>
         </is>
       </c>
       <c r="F22" t="n">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,7 +13303,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F270" t="n">
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -17704,12 +17704,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -17723,7 +17723,7 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,12 +17752,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,7 +13303,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F271" t="n">
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -17704,12 +17704,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -17723,7 +17723,7 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,12 +17752,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/06/2022</t>
+          <t>15/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,7 +13303,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F271" t="n">
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -17704,12 +17704,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -17723,7 +17723,7 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,12 +17752,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -17752,12 +17752,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,12 +17800,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -17819,7 +17819,7 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Tomás García Kohler</t>
+          <t>Agrícola Coexca S.A</t>
         </is>
       </c>
       <c r="F258" t="n">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F271" t="n">
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -17752,12 +17752,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,12 +17800,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -17819,7 +17819,7 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17800,12 +17800,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -17819,7 +17819,7 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,12 +17848,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -17867,7 +17867,7 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17800,12 +17800,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -17819,7 +17819,7 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,12 +17848,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -17867,7 +17867,7 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/07/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>04/05/2020</t>
+          <t>03/05/2020</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17800,12 +17800,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -17819,7 +17819,7 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,12 +17848,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -17867,7 +17867,7 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -11575,7 +11575,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F234" t="n">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17800,12 +17800,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -17819,7 +17819,7 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,12 +17848,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -17867,7 +17867,7 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17800,12 +17800,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -17819,7 +17819,7 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,12 +17848,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -17867,7 +17867,7 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -9655,7 +9655,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -6103,7 +6103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17800,12 +17800,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -17819,7 +17819,7 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,12 +17848,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -17867,7 +17867,7 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -18199,7 +18199,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F372" t="n">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F274" t="n">
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -17848,12 +17848,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -17867,7 +17867,7 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,12 +17896,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -17915,7 +17915,7 @@
         </is>
       </c>
       <c r="F366" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -17848,12 +17848,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -17867,7 +17867,7 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,12 +17896,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -17915,7 +17915,7 @@
         </is>
       </c>
       <c r="F366" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -17848,12 +17848,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -17867,7 +17867,7 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,12 +17896,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -17915,7 +17915,7 @@
         </is>
       </c>
       <c r="F366" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F274" t="n">
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17896,12 +17896,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -17915,7 +17915,7 @@
         </is>
       </c>
       <c r="F366" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,12 +17944,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -17963,7 +17963,7 @@
         </is>
       </c>
       <c r="F367" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17896,12 +17896,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -17915,7 +17915,7 @@
         </is>
       </c>
       <c r="F366" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,12 +17944,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -17963,7 +17963,7 @@
         </is>
       </c>
       <c r="F367" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F7" t="n">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>03/05/2020</t>
+          <t>04/05/2020</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17944,12 +17944,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -17963,7 +17963,7 @@
         </is>
       </c>
       <c r="F367" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,12 +17992,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -18011,7 +18011,7 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F276" t="n">
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17944,12 +17944,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -17963,7 +17963,7 @@
         </is>
       </c>
       <c r="F367" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,12 +17992,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -18011,7 +18011,7 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/04/2023</t>
+          <t>17/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F276" t="n">
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17944,12 +17944,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -17963,7 +17963,7 @@
         </is>
       </c>
       <c r="F367" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,12 +17992,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -18011,7 +18011,7 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>04/05/2020</t>
+          <t>03/05/2020</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F276" t="n">
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17944,12 +17944,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -17963,7 +17963,7 @@
         </is>
       </c>
       <c r="F367" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,12 +17992,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -18011,7 +18011,7 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F276" t="n">
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,7 +13639,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17992,12 +17992,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -18011,7 +18011,7 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,12 +18040,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -18059,7 +18059,7 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,7 +13639,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17992,12 +17992,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -18011,7 +18011,7 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,12 +18040,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -18059,7 +18059,7 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/06/2023</t>
+          <t>09/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,7 +13639,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F278" t="n">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -18040,12 +18040,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -18059,7 +18059,7 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,12 +18088,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -18107,7 +18107,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,7 +13639,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -18040,12 +18040,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -18059,7 +18059,7 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,12 +18088,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -18107,7 +18107,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,7 +13639,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F278" t="n">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -18040,12 +18040,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -18059,7 +18059,7 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,12 +18088,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -18107,7 +18107,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -18088,12 +18088,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -18107,7 +18107,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,12 +18136,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -18155,7 +18155,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F278" t="n">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -18088,12 +18088,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -18107,7 +18107,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,12 +18136,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -18155,7 +18155,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -18487,7 +18487,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F378" t="n">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -18136,12 +18136,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -18155,7 +18155,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,12 +18184,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -18203,7 +18203,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -18136,12 +18136,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -18155,7 +18155,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,12 +18184,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -18203,7 +18203,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -18136,12 +18136,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -18155,7 +18155,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,12 +18184,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -18203,7 +18203,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -18184,12 +18184,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -18203,7 +18203,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,12 +18232,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -18251,7 +18251,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -18184,12 +18184,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -18203,7 +18203,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,12 +18232,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -18251,7 +18251,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">

--- a/data/Rancagua.xlsx
+++ b/data/Rancagua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.911337</v>
+        <v>19113</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Rancagua</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Rancagua, Tramitación Nº14 (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>Ilustre Municipalidad de Rancagua</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=900165&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -18184,12 +18184,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -18203,7 +18203,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,12 +18232,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -18251,7 +18251,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
